--- a/fixed_point_methods/inv_demand_3.xlsx
+++ b/fixed_point_methods/inv_demand_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfuentes/ASL/ICU/fixed_point_methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1F87F-7915-8043-8D82-0281168778ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C783F0-DAA1-8B40-B860-33B8997799BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{3EBCDA5C-E193-F340-AD4B-1D4D715CF179}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{3EBCDA5C-E193-F340-AD4B-1D4D715CF179}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB1A021-3A7C-C24A-8EEC-D98D852F968E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,6 +475,57 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
